--- a/Banco/Modelagem/DICIONARIO DE DADOS.xlsx
+++ b/Banco/Modelagem/DICIONARIO DE DADOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t xml:space="preserve">DICIONÁRIO DE DADOS BEARDS BUCKET</t>
   </si>
@@ -158,6 +158,12 @@
     <t xml:space="preserve">AGENCIA DO CLIENTE</t>
   </si>
   <si>
+    <t xml:space="preserve">CLI_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS SE E ATIVO OU INATIVO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLI_CONTA</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
     <t xml:space="preserve">CODIGO DA EMPRESA</t>
   </si>
   <si>
+    <t xml:space="preserve">EMP_STATUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMP_NOME</t>
   </si>
   <si>
@@ -215,6 +224,9 @@
     <t xml:space="preserve">CNPJ DA EMPRESA</t>
   </si>
   <si>
+    <t xml:space="preserve">NÃO NULO, UNICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CATEGORIA</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
     <t xml:space="preserve">CODIGO DA CATEGORIA </t>
   </si>
   <si>
+    <t xml:space="preserve">CAT_STATUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAT_NOME</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">NÚMERO DA CONTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT_STATUS</t>
   </si>
   <si>
     <t xml:space="preserve">CNT_TIPO</t>
@@ -576,16 +594,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -673,21 +691,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9676113360324"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,6 +726,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>1</v>
@@ -1053,11 +1079,9 @@
         <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>48</v>
@@ -1081,28 +1105,36 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
@@ -1112,52 +1144,42 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,37 +1194,47 @@
         <v>53</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -1228,52 +1260,42 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,99 +1303,127 @@
         <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <v>200</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="D48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,481 +1438,577 @@
         <v>70</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="D69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0"/>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="5" t="n">
-        <v>10.2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>10.2</v>
+        <v>200</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="5" t="s">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
+      <c r="B85" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="13" t="n">
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="14"/>
       <c r="D88" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="14"/>
+      <c r="A89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="D89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E89" s="13"/>
       <c r="F89" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+    <row r="90" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1871,11 +2017,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A78:F78"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1900,12 +2046,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
